--- a/getTranslationFromDeepL/paraNeedTranslate/paragraphElement-phase4.2.xlsx
+++ b/getTranslationFromDeepL/paraNeedTranslate/paragraphElement-phase4.2.xlsx
@@ -495,6 +495,7 @@
           <t>The RTB mode sets the direction, velocity, force of gravity, and maximum altitude for the aircraft. A direction vector is obtained from the platform’s current position to the platform’s first waypoint. The velocity of the aircraft is adjusted according to its distance from its first waypoint. RTB aircraft are flown at their cornering speed if they are over 5,000 m from the base. Helicopter corner speed is 75% of maximum speed. Otherwise, the aircraft is flown at the greater rate of 50 m/sec or 30% above minimum velocity. The force of gravity used will be one half of the aircraft’s maximum force of gravity. The maximum altitude will be the greater of the aircraft’s commanded altitude at its current location or 5,000 m. Helicopters’ maximum altitude during RTB is set to 20 m.</t>
         </is>
       </c>
+      <c r="B3" s="0" t="inlineStr"/>
     </row>
     <row r="4" ht="110.25" customHeight="1" s="2">
       <c r="A4" s="1" t="inlineStr">
@@ -1174,6 +1175,7 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
+      <c r="B100" s="0" t="inlineStr"/>
     </row>
     <row r="101" ht="141.75" customHeight="1" s="2">
       <c r="A101" s="1" t="inlineStr">
@@ -1181,6 +1183,7 @@
           <t>If the %AB speed mode setting is selected for helicopters then the maximum thrust is computed using 100% or full Mil. If using Target Multiplier mode, the value specified is multiplied by the target’s speed at the start of the maneuver segment to obtain the desired speed. This speed mode option should only be used for maneuvers adopted relative to a target through the User Rules. If using Platform Multiplier mode, the value specified is multiplied by the aircraft’s speed at the start of the maneuver segment to obtain the desired speed.</t>
         </is>
       </c>
+      <c r="B101" s="0" t="inlineStr"/>
     </row>
     <row r="102" ht="15.75" customHeight="1" s="2">
       <c r="A102" s="1" t="inlineStr">
@@ -2227,6 +2230,11 @@
       <c r="A250" s="1" t="inlineStr">
         <is>
           <t>• when it is activated, either at the beginning of the scenario or later</t>
+        </is>
+      </c>
+      <c r="B250" t="inlineStr">
+        <is>
+          <t>- 当它被激活时，无论是在场景的开始还是后来</t>
         </is>
       </c>
     </row>
